--- a/Формирование word-документов/Данные/Данные.xlsx
+++ b/Формирование word-документов/Данные/Данные.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandr\Desktop\Уведомление\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python projects\GitHub\Формирование word-документов\Данные\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8ED4AC-E4E4-41E4-9663-56A9DDB7AAE6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA71D538-E178-4AC4-8E1E-06AA98722EE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{DFA052C0-95C8-4AE7-B9A8-DD251B66A3CE}"/>
   </bookViews>
@@ -25,48 +25,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>ООО "Урал-Пресс Поволжье"</t>
   </si>
   <si>
-    <t>445021, Самарская область, г. Тольятти, бульвар Ленина, д. 19 (обособленное подразделение)</t>
-  </si>
-  <si>
     <t>ООО "Интервал"</t>
   </si>
   <si>
-    <t>Самарская область, г. Сызрань, Саратовское шоссе, д. 6</t>
-  </si>
-  <si>
     <t>ООО "Телеантенны"</t>
   </si>
   <si>
-    <t>445350, Самарская область, г. Жигулёвск, ул. Вокзальная, 2</t>
-  </si>
-  <si>
     <t>ООО "Спутник Авто"</t>
   </si>
   <si>
-    <t>443074, г. Самара, ул. Мориса Тореза, д. 103</t>
-  </si>
-  <si>
     <t>ООО "ПОЖАРНЫЙ АУДИТ"</t>
   </si>
   <si>
-    <t>446001, Самарская область, г. Сызрань, ул. Константина Федина, д. 28А, литера Г</t>
-  </si>
-  <si>
     <t>ООО "ПОВОЛЖСКАЯ МК"</t>
   </si>
   <si>
-    <t>445022, г. Тольятти, проезд Ключевой, д. 11 офис 6</t>
-  </si>
-  <si>
     <t>ГБУЗ СО "Сызранская ССМП"</t>
-  </si>
-  <si>
-    <t>446001, Самарская область, г. Сызрань, ул. Советская, 93</t>
   </si>
   <si>
     <t>Директору</t>
@@ -138,6 +117,58 @@
   <si>
     <t>Ф.И.О. (обращение)
 {{initials}}</t>
+  </si>
+  <si>
+    <t>Название файла</t>
+  </si>
+  <si>
+    <t>Урал-Пресс Поволжье</t>
+  </si>
+  <si>
+    <t>Интервал</t>
+  </si>
+  <si>
+    <t>Телеантенны</t>
+  </si>
+  <si>
+    <t>Спутник Авто</t>
+  </si>
+  <si>
+    <t>ПОЖАРНЫЙ АУДИТ</t>
+  </si>
+  <si>
+    <t>ПОВОЛЖСКАЯ МК</t>
+  </si>
+  <si>
+    <t>Сызранская ССМП</t>
+  </si>
+  <si>
+    <t>Самарская область, г. Сызрань,
+Саратовское шоссе, д. 6</t>
+  </si>
+  <si>
+    <t>445350, Самарская область,
+г. Жигулёвск, ул. Вокзальная, 2</t>
+  </si>
+  <si>
+    <t>445021, Самарская область, г. Тольятти,
+бульвар Ленина, д. 19</t>
+  </si>
+  <si>
+    <t>443074, г. Самара,
+ул. Мориса Тореза, д. 103</t>
+  </si>
+  <si>
+    <t>446001, Самарская область, г. Сызрань,
+ул. Константина Федина, д. 28А, литера Г</t>
+  </si>
+  <si>
+    <t>445022, г. Тольятти,
+проезд Ключевой, д. 11 офис 6</t>
+  </si>
+  <si>
+    <t>446001, Самарская область,
+г. Сызрань, ул. Советская, 93</t>
   </si>
 </sst>
 </file>
@@ -538,156 +569,181 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA92597D-313A-4216-ABF0-E7C563A34DBE}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="89.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="25.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="25.85546875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>35</v>
+        <v>28</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="B3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>24</v>
+      <c r="F8" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Формирование word-документов/Данные/Данные.xlsx
+++ b/Формирование word-документов/Данные/Данные.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python projects\GitHub\Формирование word-документов\Данные\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python-проекты\GitHub\Формирование word-документов\Данные\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA71D538-E178-4AC4-8E1E-06AA98722EE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3990A0F5-4CC1-4CA6-AD03-9B718813F4C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{DFA052C0-95C8-4AE7-B9A8-DD251B66A3CE}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="20592" windowHeight="11568" xr2:uid="{DFA052C0-95C8-4AE7-B9A8-DD251B66A3CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>ООО "Урал-Пресс Поволжье"</t>
   </si>
@@ -117,30 +117,6 @@
   <si>
     <t>Ф.И.О. (обращение)
 {{initials}}</t>
-  </si>
-  <si>
-    <t>Название файла</t>
-  </si>
-  <si>
-    <t>Урал-Пресс Поволжье</t>
-  </si>
-  <si>
-    <t>Интервал</t>
-  </si>
-  <si>
-    <t>Телеантенны</t>
-  </si>
-  <si>
-    <t>Спутник Авто</t>
-  </si>
-  <si>
-    <t>ПОЖАРНЫЙ АУДИТ</t>
-  </si>
-  <si>
-    <t>ПОВОЛЖСКАЯ МК</t>
-  </si>
-  <si>
-    <t>Сызранская ССМП</t>
   </si>
   <si>
     <t>Самарская область, г. Сызрань,
@@ -569,24 +545,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA92597D-313A-4216-ABF0-E7C563A34DBE}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.85546875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="28.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
@@ -602,16 +577,13 @@
       <c r="E1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>7</v>
@@ -622,16 +594,13 @@
       <c r="E2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>7</v>
@@ -642,16 +611,13 @@
       <c r="E3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>31</v>
-      </c>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>8</v>
@@ -662,16 +628,13 @@
       <c r="E4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>32</v>
-      </c>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>7</v>
@@ -682,16 +645,13 @@
       <c r="E5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>33</v>
-      </c>
     </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>7</v>
@@ -702,16 +662,13 @@
       <c r="E6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>34</v>
-      </c>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>8</v>
@@ -722,16 +679,13 @@
       <c r="E7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>35</v>
-      </c>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>9</v>
@@ -741,9 +695,6 @@
       </c>
       <c r="E8" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Формирование word-документов/Данные/Данные.xlsx
+++ b/Формирование word-документов/Данные/Данные.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python-проекты\GitHub\Формирование word-документов\Данные\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python projects\GitHub\Формирование word-документов\Данные\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3990A0F5-4CC1-4CA6-AD03-9B718813F4C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A723DDC-43D1-4755-8B4A-4213AAA458A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="20592" windowHeight="11568" xr2:uid="{DFA052C0-95C8-4AE7-B9A8-DD251B66A3CE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{DFA052C0-95C8-4AE7-B9A8-DD251B66A3CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -547,21 +547,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA92597D-313A-4216-ABF0-E7C563A34DBE}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="28.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
@@ -578,7 +576,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -595,7 +593,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -612,7 +610,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -629,7 +627,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -646,7 +644,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -663,7 +661,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -680,7 +678,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>

--- a/Формирование word-документов/Данные/Данные.xlsx
+++ b/Формирование word-документов/Данные/Данные.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python projects\GitHub\Формирование word-документов\Данные\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A723DDC-43D1-4755-8B4A-4213AAA458A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A495E458-4138-42C0-BE91-B24EC6BAB72F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{DFA052C0-95C8-4AE7-B9A8-DD251B66A3CE}"/>
+    <workbookView xWindow="3750" yWindow="4260" windowWidth="23055" windowHeight="11940" xr2:uid="{DFA052C0-95C8-4AE7-B9A8-DD251B66A3CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,79 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
-  <si>
-    <t>ООО "Урал-Пресс Поволжье"</t>
-  </si>
-  <si>
-    <t>ООО "Интервал"</t>
-  </si>
-  <si>
-    <t>ООО "Телеантенны"</t>
-  </si>
-  <si>
-    <t>ООО "Спутник Авто"</t>
-  </si>
-  <si>
-    <t>ООО "ПОЖАРНЫЙ АУДИТ"</t>
-  </si>
-  <si>
-    <t>ООО "ПОВОЛЖСКАЯ МК"</t>
-  </si>
-  <si>
-    <t>ГБУЗ СО "Сызранская ССМП"</t>
-  </si>
-  <si>
-    <t>Директору</t>
-  </si>
-  <si>
-    <t>Генеральному директору</t>
-  </si>
-  <si>
-    <t>Главному врачу</t>
-  </si>
-  <si>
-    <t>Комарову С.Н.</t>
-  </si>
-  <si>
-    <t>Белякову В.В.</t>
-  </si>
-  <si>
-    <t>Съедугину И.Ю.</t>
-  </si>
-  <si>
-    <t>Икласову С.Ж.</t>
-  </si>
-  <si>
-    <t>Ахметову М.Ф.</t>
-  </si>
-  <si>
-    <t>Фроловской Н.С.</t>
-  </si>
-  <si>
-    <t>Урунходжаеву А.К.</t>
-  </si>
-  <si>
-    <t>Азизхуджа Кодырходжаевич</t>
-  </si>
-  <si>
-    <t>Наталья Сергеевна</t>
-  </si>
-  <si>
-    <t>Марс Фиккиевич</t>
-  </si>
-  <si>
-    <t>Сергей Жиенбаевич</t>
-  </si>
-  <si>
-    <t>Игорь Юрьевич</t>
-  </si>
-  <si>
-    <t>Владимир Вениаминович</t>
-  </si>
-  <si>
-    <t>Сергей Николаевич</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Ф.И.О. (кому)
 {{short_director}}</t>
@@ -119,32 +47,31 @@
 {{initials}}</t>
   </si>
   <si>
-    <t>Самарская область, г. Сызрань,
-Саратовское шоссе, д. 6</t>
-  </si>
-  <si>
-    <t>445350, Самарская область,
-г. Жигулёвск, ул. Вокзальная, 2</t>
-  </si>
-  <si>
-    <t>445021, Самарская область, г. Тольятти,
-бульвар Ленина, д. 19</t>
-  </si>
-  <si>
-    <t>443074, г. Самара,
-ул. Мориса Тореза, д. 103</t>
-  </si>
-  <si>
-    <t>446001, Самарская область, г. Сызрань,
-ул. Константина Федина, д. 28А, литера Г</t>
-  </si>
-  <si>
-    <t>445022, г. Тольятти,
-проезд Ключевой, д. 11 офис 6</t>
-  </si>
-  <si>
-    <t>446001, Самарская область,
-г. Сызрань, ул. Советская, 93</t>
+    <t>ЗАО "ТЭЛКО"</t>
+  </si>
+  <si>
+    <t>генеральному директору</t>
+  </si>
+  <si>
+    <t>Индивидуальному предпринимателю</t>
+  </si>
+  <si>
+    <t>Соколову С.А.</t>
+  </si>
+  <si>
+    <t>Сергей Александрович</t>
+  </si>
+  <si>
+    <t>445035, Самарская область, г. Тольятти, ул. Мира, 108</t>
+  </si>
+  <si>
+    <t>445021, Самарская область, г. Тольятти, б-р Ленина, д. 23, кв. 17</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>"Соколову С.А.</t>
   </si>
 </sst>
 </file>
@@ -545,9 +472,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA92597D-313A-4216-ABF0-E7C563A34DBE}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -561,139 +490,58 @@
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>17</v>
-      </c>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
